--- a/data_excel/545.xlsx
+++ b/data_excel/545.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>操場</t>
   </si>
@@ -118,6 +118,14 @@
   </si>
   <si>
     <t>left</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -491,12 +499,12 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -516,12 +524,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -529,8 +537,8 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
-        <v>4</v>
+      <c r="F2" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
